--- a/MyShelf/data.xlsx
+++ b/MyShelf/data.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T234"/>
+  <dimension ref="A1:T233"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A211" zoomScale="97" workbookViewId="0">
       <selection activeCell="E223" sqref="E223"/>
@@ -15865,72 +15865,6 @@
         <v>549</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Vanilla sugar</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Herbs and spices</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>2</v>
-      </c>
-      <c r="D234" t="n">
-        <v>1</v>
-      </c>
-      <c r="E234" t="n">
-        <v>3</v>
-      </c>
-      <c r="F234" t="n">
-        <v>300</v>
-      </c>
-      <c r="G234" t="n">
-        <v>350</v>
-      </c>
-      <c r="H234" t="n">
-        <v>625</v>
-      </c>
-      <c r="I234" t="n">
-        <v>1152</v>
-      </c>
-      <c r="J234" t="n">
-        <v>662</v>
-      </c>
-      <c r="K234" t="n">
-        <v>1372</v>
-      </c>
-      <c r="L234" t="n">
-        <v>842</v>
-      </c>
-      <c r="M234" t="n">
-        <v>979</v>
-      </c>
-      <c r="N234" t="n">
-        <v>1242</v>
-      </c>
-      <c r="O234" t="n">
-        <v>571</v>
-      </c>
-      <c r="P234" t="n">
-        <v>816</v>
-      </c>
-      <c r="Q234" t="n">
-        <v>1422</v>
-      </c>
-      <c r="R234" t="n">
-        <v>1419</v>
-      </c>
-      <c r="S234" t="n">
-        <v>1076</v>
-      </c>
-      <c r="T234" t="n">
-        <v>841</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
